--- a/school.xlsx
+++ b/school.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\student_management_system\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEDE139-0285-47C3-A989-00AD52BAEB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Routes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>School</t>
   </si>
@@ -142,12 +148,57 @@
   </si>
   <si>
     <t>Kumaravel (613)</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Put</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Parent Route</t>
+  </si>
+  <si>
+    <t>Route/url</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>school/create</t>
+  </si>
+  <si>
+    <t>school/login</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>school/dashboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,6 +252,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -248,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,9 +335,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,6 +387,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,30 +579,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C5:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
@@ -535,7 +623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -546,7 +634,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>9</v>
       </c>
@@ -560,7 +648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>6</v>
       </c>
@@ -574,7 +662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>28</v>
       </c>
@@ -588,7 +676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
@@ -596,7 +684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -604,7 +692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -612,7 +700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -620,7 +708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -628,7 +716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>27</v>
       </c>
@@ -636,12 +724,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>20</v>
       </c>
@@ -653,27 +741,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D5:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>30</v>
       </c>
@@ -687,7 +775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>1</v>
       </c>
@@ -701,7 +789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>2</v>
       </c>
@@ -715,7 +803,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>3</v>
       </c>
@@ -735,13 +823,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>